--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587F779-3CDB-4264-A4FE-7C47012C706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8552F65-6217-4954-869B-9B7FB9ABC223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -118,9 +118,6 @@
     <t>MCF Maximum Capacity Factor</t>
   </si>
   <si>
-    <t>None needed</t>
-  </si>
-  <si>
     <t>This represents the maximum capacity factor a plant type can achieve</t>
   </si>
   <si>
@@ -130,7 +127,19 @@
     <t>a 5% penalty to represent that plants are not typically available 100% of the</t>
   </si>
   <si>
-    <t>year due to factors like plant maintenance.</t>
+    <t>The Myth of the 24/7/365 Power Plant</t>
+  </si>
+  <si>
+    <t>National Resources Defense Council</t>
+  </si>
+  <si>
+    <t>https://www.nrdc.org/bio/rachel-fakhry/myth-247365-power-plant</t>
+  </si>
+  <si>
+    <t>year due to factors like plant maintenance, based on the value for gas plants</t>
+  </si>
+  <si>
+    <t>in the NRDC source above. For coal, we apply a 15% penalty based on NRDC.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -295,13 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -723,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,56 +747,88 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{F347B8A5-4293-4AF0-8AF8-8B455D7F79DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -806,7 +840,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -854,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="C5" s="3"/>
     </row>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8552F65-6217-4954-869B-9B7FB9ABC223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443B04D-F45B-41B0-9630-2317F5CDFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>in the NRDC source above. For coal, we apply a 15% penalty based on NRDC.</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -837,10 +855,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1027,60 @@
       </c>
       <c r="C18" s="3"/>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B2</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B4</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B10</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B14</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B5</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B4</f>
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443B04D-F45B-41B0-9630-2317F5CDFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22BA7F-3307-47E6-8D94-A6FFE854A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7455" yWindow="960" windowWidth="33780" windowHeight="21990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -55,9 +55,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>hydrogen</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
   </si>
 </sst>
 </file>
@@ -745,9 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,10 +765,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
@@ -786,7 +784,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
@@ -794,7 +792,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
@@ -804,36 +802,36 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -857,9 +855,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -869,14 +865,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>0.85</v>
@@ -885,7 +881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>0.95</v>
@@ -894,7 +890,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>0.95</v>
@@ -903,7 +899,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>0.91</v>
@@ -912,7 +908,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -921,7 +917,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -930,7 +926,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -939,7 +935,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -948,7 +944,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>0.95</v>
@@ -957,7 +953,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>0.95</v>
@@ -966,7 +962,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>0.95</v>
@@ -975,7 +971,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
         <v>0.95</v>
@@ -984,7 +980,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>0.95</v>
@@ -993,7 +989,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -1002,7 +998,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>0.95</v>
@@ -1011,7 +1007,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>0.95</v>
@@ -1020,7 +1016,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>0.95</v>
@@ -1029,7 +1025,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
         <f>B2</f>
@@ -1038,7 +1034,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
         <f>B4</f>
@@ -1047,7 +1043,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
         <f>B10</f>
@@ -1056,7 +1052,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3">
         <f>B14</f>
@@ -1065,7 +1061,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3">
         <f>B5</f>
@@ -1074,7 +1070,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
         <f>B4</f>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22BA7F-3307-47E6-8D94-A6FFE854A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769F5B2-C1AD-48F3-A825-C02B8D9F8A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="960" windowWidth="33780" windowHeight="21990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>nuclear</t>
   </si>
@@ -154,10 +154,13 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +228,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -853,9 +866,11 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -971,7 +986,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
         <v>0.95</v>
@@ -1069,10 +1084,19 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
+      <c r="A24" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="3">
+        <f>B4</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
         <f>B4</f>
         <v>0.95</v>
       </c>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5E761-3510-4551-BBBD-14D4B578101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E663-49B3-49C3-93A5-0BC636FA8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E663-49B3-49C3-93A5-0BC636FA8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5E761-3510-4551-BBBD-14D4B578101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8901C8-0A08-45FE-BA2D-BF915959C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64DA94-7A2B-46EC-A4E2-18C6018E050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -627,7 +627,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1855,23 +1855,23 @@
       <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" customWidth="1"/>
-    <col min="8" max="8" width="53.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -1889,7 +1889,7 @@
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2019</v>
@@ -1897,7 +1897,7 @@
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>23</v>
@@ -1905,99 +1905,99 @@
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
         <v>129</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>130</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2024</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>133</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -2024,14 +2024,14 @@
       <selection activeCell="C33" sqref="C33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" style="58" customWidth="1"/>
     <col min="2" max="2" width="2" style="58" customWidth="1"/>
-    <col min="3" max="8" width="8.453125" style="9" customWidth="1"/>
+    <col min="3" max="8" width="8.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2040,7 +2040,7 @@
       <c r="F1" s="8"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:14" ht="25">
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="102" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="F2" s="102"/>
       <c r="G2" s="102"/>
     </row>
-    <row r="3" spans="1:14" ht="18">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2064,7 +2064,7 @@
       <c r="M3" s="103"/>
       <c r="N3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="18">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>36</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="F4" s="104"/>
       <c r="G4" s="104"/>
     </row>
-    <row r="5" spans="1:14" ht="18">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -2084,7 +2084,7 @@
       <c r="F5" s="8"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -2095,7 +2095,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="105"/>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
@@ -2104,7 +2104,7 @@
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2113,7 +2113,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.5" thickBot="1">
+    <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>42</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>44</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="43"/>
@@ -2300,7 +2300,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:10" ht="18.5" thickBot="1">
+    <row r="17" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="50"/>
@@ -2366,7 +2366,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:10" ht="18.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>49</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>50</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>51</v>
       </c>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="J23" s="54"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>52</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J24" s="54"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="J26" s="54"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="I27" s="53"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>56</v>
       </c>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="J28" s="54"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>57</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
         <v>58</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>59</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="65"/>
@@ -2667,7 +2667,7 @@
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" thickBot="1">
+    <row r="33" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>60</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>61</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J35" s="68"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="38" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="57" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="39" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="40" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="57" t="s">
         <v>67</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="41" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
         <v>68</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="J41" s="68"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>69</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="43" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="s">
         <v>70</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="44" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="45" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
         <v>72</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J45" s="68"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J46" s="68"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>74</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="J47" s="68"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>75</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="49" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
         <v>76</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="50" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="57" t="s">
         <v>77</v>
       </c>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="J50" s="68"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>78</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="J51" s="68"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="J52" s="68"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>80</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="76" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="66"/>
@@ -3289,7 +3289,7 @@
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
     </row>
-    <row r="56" spans="1:10" ht="18.5" thickBot="1">
+    <row r="56" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>82</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>61</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="J57" s="37"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>62</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="J58" s="81"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>63</v>
       </c>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J59" s="81"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
         <v>64</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J60" s="81"/>
     </row>
-    <row r="61" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="61" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
         <v>65</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="J61" s="81"/>
     </row>
-    <row r="62" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="62" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
         <v>66</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J62" s="81"/>
     </row>
-    <row r="63" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="63" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
         <v>67</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="J63" s="81"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>69</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="J64" s="81"/>
     </row>
-    <row r="65" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="65" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
         <v>70</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="J65" s="81"/>
     </row>
-    <row r="66" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="66" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="82" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="J66" s="81"/>
     </row>
-    <row r="67" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="67" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
         <v>72</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="J67" s="81"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>73</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="J68" s="81"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>74</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J69" s="81"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>75</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J70" s="81"/>
     </row>
-    <row r="71" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="71" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
         <v>76</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J71" s="81"/>
     </row>
-    <row r="72" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="72" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="83" t="s">
         <v>77</v>
       </c>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="J72" s="81"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
         <v>78</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="J73" s="81"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J74" s="81"/>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="84" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="J75" s="81"/>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="39"/>
       <c r="C76" s="88"/>
@@ -3861,7 +3861,7 @@
       <c r="I76" s="88"/>
       <c r="J76" s="81"/>
     </row>
-    <row r="77" spans="1:10" ht="18.5" thickBot="1">
+    <row r="77" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>83</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>61</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="J78" s="37"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>62</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="J79" s="81"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
         <v>63</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="J80" s="81"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
         <v>64</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J81" s="81"/>
     </row>
-    <row r="82" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="82" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="57" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="J82" s="81"/>
     </row>
-    <row r="83" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="83" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="59" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="J83" s="81"/>
     </row>
-    <row r="84" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="84" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="57" t="s">
         <v>67</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J84" s="81"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>69</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="J85" s="81"/>
     </row>
-    <row r="86" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="86" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="57" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J86" s="81"/>
     </row>
-    <row r="87" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="87" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="82" t="s">
         <v>71</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J87" s="81"/>
     </row>
-    <row r="88" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="88" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="57" t="s">
         <v>72</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J88" s="81"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>73</v>
       </c>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="J89" s="81"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>74</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J90" s="81"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>75</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J91" s="81"/>
     </row>
-    <row r="92" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="92" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="57" t="s">
         <v>76</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="J92" s="81"/>
     </row>
-    <row r="93" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="93" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="83" t="s">
         <v>77</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J93" s="81"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
         <v>78</v>
       </c>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J94" s="81"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>80</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="J95" s="81"/>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="84" t="s">
         <v>81</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J96" s="81"/>
     </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1">
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="66"/>
@@ -4431,7 +4431,7 @@
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
     </row>
-    <row r="98" spans="1:10" ht="18.5" thickBot="1">
+    <row r="98" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
         <v>85</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="J99" s="81"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="59" t="s">
         <v>86</v>
       </c>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="J100" s="81"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
         <v>87</v>
       </c>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J101" s="81"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="s">
         <v>88</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="J102" s="81"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
         <v>89</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="J103" s="81"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="59" t="s">
         <v>90</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="J104" s="81"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
         <v>91</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J105" s="81"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="60" t="s">
         <v>92</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="J106" s="81"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
         <v>93</v>
       </c>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="J107" s="68"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="60" t="s">
         <v>94</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="58" t="s">
         <v>95</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="60" t="s">
         <v>96</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="J110" s="68"/>
     </row>
-    <row r="111" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="111" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="58" t="s">
         <v>97</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="J111" s="68"/>
     </row>
-    <row r="112" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="112" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="60" t="s">
         <v>98</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J112" s="68"/>
     </row>
-    <row r="113" spans="1:10" s="73" customFormat="1" thickBot="1">
+    <row r="113" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="84" t="s">
         <v>81</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J113" s="68"/>
     </row>
-    <row r="114" spans="1:10" s="73" customFormat="1" ht="15" thickBot="1">
+    <row r="114" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="58"/>
       <c r="B114" s="58"/>
       <c r="C114" s="66"/>
@@ -4884,7 +4884,7 @@
       <c r="I114"/>
       <c r="J114" s="68"/>
     </row>
-    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.5" thickBot="1">
+    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>99</v>
       </c>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="J115" s="68"/>
     </row>
-    <row r="116" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="116" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
         <v>61</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="J116" s="68"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>62</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="J117" s="92"/>
     </row>
-    <row r="118" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="118" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
         <v>63</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="J118" s="68"/>
     </row>
-    <row r="119" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="119" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="s">
         <v>100</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="J119" s="68"/>
     </row>
-    <row r="120" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="120" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="57" t="s">
         <v>64</v>
       </c>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="J120" s="68"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="59" t="s">
         <v>65</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="J121" s="68"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
         <v>66</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J122" s="68"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="59" t="s">
         <v>67</v>
       </c>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="J123" s="68"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>68</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="J124" s="68"/>
     </row>
-    <row r="125" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="125" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>69</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="J125" s="68"/>
     </row>
-    <row r="126" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="126" spans="1:10" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="57" t="s">
         <v>101</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="J126" s="68"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="s">
         <v>71</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J127" s="68"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="57" t="s">
         <v>72</v>
       </c>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="J128" s="68"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>73</v>
       </c>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="J129" s="68"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
         <v>74</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="J130" s="68"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>75</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="J131" s="68"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="57" t="s">
         <v>76</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>1060.4055484272631</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="59" t="s">
         <v>77</v>
       </c>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
         <v>78</v>
       </c>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="J134" s="68"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>79</v>
       </c>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="J135" s="68"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>80</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J136" s="68"/>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1">
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="93" t="s">
         <v>81</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="J137" s="68"/>
     </row>
-    <row r="138" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="66"/>
@@ -5531,7 +5531,7 @@
       <c r="H138" s="66"/>
       <c r="J138" s="68"/>
     </row>
-    <row r="139" spans="1:10" ht="18.5" thickBot="1">
+    <row r="139" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>102</v>
       </c>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="J139" s="68"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
         <v>103</v>
       </c>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="J140" s="68"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="59" t="s">
         <v>104</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="I141" s="70"/>
       <c r="J141" s="68"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="57" t="s">
         <v>105</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="I142" s="67"/>
       <c r="J142" s="68"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="59" t="s">
         <v>106</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="I143" s="70"/>
       <c r="J143" s="68"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="57" t="s">
         <v>107</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="J144" s="68"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="59" t="s">
         <v>108</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="I145" s="70"/>
       <c r="J145" s="68"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
         <v>109</v>
       </c>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="J146" s="68"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="59" t="s">
         <v>110</v>
       </c>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J147" s="68"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
         <v>105</v>
       </c>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="J148" s="68"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="59" t="s">
         <v>107</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="J149" s="34"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
         <v>109</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>39.010000009234588</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>111</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>5.2116030849019062</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
         <v>112</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="H152" s="66"/>
       <c r="I152" s="67"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="59" t="s">
         <v>113</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>2.5205571355626204</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="57" t="s">
         <v>114</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>2.6910459493392862</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="59"/>
       <c r="B155" s="60"/>
       <c r="C155" s="69"/>
@@ -5938,7 +5938,7 @@
       <c r="H155" s="69"/>
       <c r="I155" s="70"/>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1">
+    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>115</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>7.8382324901165461</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="32"/>
@@ -5974,7 +5974,7 @@
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="58" t="s">
         <v>116</v>
       </c>
@@ -6002,12 +6002,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.5" thickBot="1">
+    <row r="1" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="17">
         <v>2028</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>0.42851499116440761</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6096,12 +6096,12 @@
         <v>0.72106646255644558</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0.59511818843685693</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -6367,14 +6367,14 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -8762,16 +8762,16 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE2"/>
+      <selection activeCell="P2" sqref="P2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29">
+    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>0.53096126356228979</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>0.53096126356228979</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64DA94-7A2B-46EC-A4E2-18C6018E050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BB8B4-A134-43E7-BBB4-1F6BF5186A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8761,8 +8761,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:AE2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8871,124 +8871,94 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <f>'Coal Calculations'!B9</f>
         <v>0.85</v>
       </c>
       <c r="C2" s="3">
-        <f>'Coal Calculations'!C9</f>
         <v>0.85</v>
       </c>
       <c r="D2" s="3">
-        <f>'Coal Calculations'!D9</f>
         <v>0.85</v>
       </c>
       <c r="E2" s="3">
-        <f>'Coal Calculations'!E9</f>
         <v>0.85</v>
       </c>
       <c r="F2" s="3">
-        <f>'Coal Calculations'!F9</f>
         <v>0.85</v>
       </c>
       <c r="G2" s="3">
-        <f>'Coal Calculations'!G9</f>
         <v>0.85</v>
       </c>
       <c r="H2" s="3">
-        <f>'Coal Calculations'!H9</f>
         <v>0.85</v>
       </c>
       <c r="I2" s="3">
-        <f>'Coal Calculations'!I9</f>
         <v>0.85</v>
       </c>
       <c r="J2" s="3">
-        <f>'Coal Calculations'!J9</f>
         <v>0.85</v>
       </c>
       <c r="K2" s="3">
-        <f>'Coal Calculations'!K9</f>
         <v>0.85</v>
       </c>
       <c r="L2" s="3">
-        <f>'Coal Calculations'!L9</f>
         <v>0.85</v>
       </c>
       <c r="M2" s="3">
-        <f>'Coal Calculations'!M9</f>
         <v>0.85</v>
       </c>
       <c r="N2" s="3">
-        <f>'Coal Calculations'!N9</f>
         <v>0.85</v>
       </c>
       <c r="O2" s="3">
-        <f>'Coal Calculations'!O9</f>
         <v>0.85</v>
       </c>
       <c r="P2" s="3">
-        <f>'Coal Calculations'!P9</f>
         <v>0.85</v>
       </c>
       <c r="Q2" s="3">
-        <f>'Coal Calculations'!Q9</f>
-        <v>0.72031265723109072</v>
+        <v>0.85</v>
       </c>
       <c r="R2" s="3">
-        <f>'Coal Calculations'!R9</f>
-        <v>0.59062531446215871</v>
+        <v>0.85</v>
       </c>
       <c r="S2" s="3">
-        <f>'Coal Calculations'!S9</f>
-        <v>0.4609379716932267</v>
+        <v>0.85</v>
       </c>
       <c r="T2" s="3">
-        <f>'Coal Calculations'!T9</f>
-        <v>0.33125062892429469</v>
+        <v>0.85</v>
       </c>
       <c r="U2" s="3">
-        <f>'Coal Calculations'!U9</f>
-        <v>0.20156328615530583</v>
+        <v>0.85</v>
       </c>
       <c r="V2" s="3">
-        <f>'Coal Calculations'!V9</f>
-        <v>0.19321882697840209</v>
+        <v>0.85</v>
       </c>
       <c r="W2" s="3">
-        <f>'Coal Calculations'!W9</f>
-        <v>0.18487436780148059</v>
+        <v>0.85</v>
       </c>
       <c r="X2" s="3">
-        <f>'Coal Calculations'!X9</f>
-        <v>0.17652990862455908</v>
+        <v>0.85</v>
       </c>
       <c r="Y2" s="3">
-        <f>'Coal Calculations'!Y9</f>
-        <v>0.16818544944764113</v>
+        <v>0.85</v>
       </c>
       <c r="Z2" s="3">
-        <f>'Coal Calculations'!Z9</f>
-        <v>0.15984099027071963</v>
+        <v>0.85</v>
       </c>
       <c r="AA2" s="3">
-        <f>'Coal Calculations'!AA9</f>
-        <v>0.23406504492902513</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="3">
-        <f>'Coal Calculations'!AB9</f>
-        <v>0.3082890995873413</v>
+        <v>0.85</v>
       </c>
       <c r="AC2" s="3">
-        <f>'Coal Calculations'!AC9</f>
-        <v>0.38251315424565746</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="3">
-        <f>'Coal Calculations'!AD9</f>
-        <v>0.45673720890397362</v>
+        <v>0.85</v>
       </c>
       <c r="AE2" s="3">
-        <f>'Coal Calculations'!AE9</f>
-        <v>0.53096126356228979</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -10577,63 +10547,63 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>0.72031265723109072</v>
+        <v>0.85</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="0"/>
-        <v>0.59062531446215871</v>
+        <v>0.85</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="0"/>
-        <v>0.4609379716932267</v>
+        <v>0.85</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="0"/>
-        <v>0.33125062892429469</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="0"/>
-        <v>0.20156328615530583</v>
+        <v>0.85</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="0"/>
-        <v>0.19321882697840209</v>
+        <v>0.85</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="0"/>
-        <v>0.18487436780148059</v>
+        <v>0.85</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="0"/>
-        <v>0.17652990862455908</v>
+        <v>0.85</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="0"/>
-        <v>0.16818544944764113</v>
+        <v>0.85</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="0"/>
-        <v>0.15984099027071963</v>
+        <v>0.85</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>0.23406504492902513</v>
+        <v>0.85</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="0"/>
-        <v>0.3082890995873413</v>
+        <v>0.85</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>0.38251315424565746</v>
+        <v>0.85</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="0"/>
-        <v>0.45673720890397362</v>
+        <v>0.85</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="0"/>
-        <v>0.53096126356228979</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8901C8-0A08-45FE-BA2D-BF915959C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692CDF7C-DDC3-4828-8489-9260C0722EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -1851,16 +1851,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" customWidth="1"/>
-    <col min="8" max="8" width="53.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2024,11 +2024,11 @@
       <selection activeCell="C33" sqref="C33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" style="58" customWidth="1"/>
     <col min="2" max="2" width="2" style="58" customWidth="1"/>
-    <col min="3" max="8" width="8.453125" style="9" customWidth="1"/>
+    <col min="3" max="8" width="8.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2040,7 +2040,7 @@
       <c r="F1" s="8"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:14" ht="25">
+    <row r="2" spans="1:14" ht="26.25">
       <c r="A2" s="102" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="F5" s="8"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -2113,7 +2113,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.5" thickBot="1">
+    <row r="10" spans="1:14" ht="18.75" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="38" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="43"/>
@@ -2300,7 +2300,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:10" ht="18.5" thickBot="1">
+    <row r="17" spans="1:10" ht="18.75" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="45" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="50"/>
@@ -2366,7 +2366,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:10" ht="18.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.75" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="61" t="s">
         <v>59</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="65"/>
@@ -2667,7 +2667,7 @@
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" thickBot="1">
+    <row r="33" spans="1:10" ht="18.75" thickBot="1">
       <c r="A33" s="15" t="s">
         <v>60</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="38" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A38" s="57" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="39" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A39" s="59" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="40" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A40" s="57" t="s">
         <v>67</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="41" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A41" s="59" t="s">
         <v>68</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="43" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A43" s="59" t="s">
         <v>70</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="44" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A44" s="57" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="45" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A45" s="59" t="s">
         <v>72</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="49" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A49" s="59" t="s">
         <v>76</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="50" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A50" s="57" t="s">
         <v>77</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1">
       <c r="A54" s="76" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="66"/>
@@ -3289,7 +3289,7 @@
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
     </row>
-    <row r="56" spans="1:10" ht="18.5" thickBot="1">
+    <row r="56" spans="1:10" ht="18.75" thickBot="1">
       <c r="A56" s="15" t="s">
         <v>82</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J60" s="81"/>
     </row>
-    <row r="61" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="61" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A61" s="57" t="s">
         <v>65</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="J61" s="81"/>
     </row>
-    <row r="62" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="62" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A62" s="59" t="s">
         <v>66</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J62" s="81"/>
     </row>
-    <row r="63" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="63" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A63" s="57" t="s">
         <v>67</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="J64" s="81"/>
     </row>
-    <row r="65" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="65" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A65" s="57" t="s">
         <v>70</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="J65" s="81"/>
     </row>
-    <row r="66" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="66" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A66" s="82" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="J66" s="81"/>
     </row>
-    <row r="67" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="67" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A67" s="57" t="s">
         <v>72</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J70" s="81"/>
     </row>
-    <row r="71" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="71" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A71" s="57" t="s">
         <v>76</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J71" s="81"/>
     </row>
-    <row r="72" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="72" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A72" s="83" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J74" s="81"/>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1">
       <c r="A75" s="84" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="J75" s="81"/>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1">
       <c r="A76" s="38"/>
       <c r="B76" s="39"/>
       <c r="C76" s="88"/>
@@ -3861,7 +3861,7 @@
       <c r="I76" s="88"/>
       <c r="J76" s="81"/>
     </row>
-    <row r="77" spans="1:10" ht="18.5" thickBot="1">
+    <row r="77" spans="1:10" ht="18.75" thickBot="1">
       <c r="A77" s="15" t="s">
         <v>83</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J81" s="81"/>
     </row>
-    <row r="82" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="82" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A82" s="57" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="J82" s="81"/>
     </row>
-    <row r="83" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="83" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A83" s="59" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="J83" s="81"/>
     </row>
-    <row r="84" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="84" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A84" s="57" t="s">
         <v>67</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="J85" s="81"/>
     </row>
-    <row r="86" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="86" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A86" s="57" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J86" s="81"/>
     </row>
-    <row r="87" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="87" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A87" s="82" t="s">
         <v>71</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J87" s="81"/>
     </row>
-    <row r="88" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="88" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A88" s="57" t="s">
         <v>72</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J91" s="81"/>
     </row>
-    <row r="92" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="92" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A92" s="57" t="s">
         <v>76</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="J92" s="81"/>
     </row>
-    <row r="93" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="93" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A93" s="83" t="s">
         <v>77</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="J95" s="81"/>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1">
       <c r="A96" s="84" t="s">
         <v>81</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J96" s="81"/>
     </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1">
+    <row r="97" spans="1:10" ht="15.75" thickBot="1">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="66"/>
@@ -4431,7 +4431,7 @@
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
     </row>
-    <row r="98" spans="1:10" ht="18.5" thickBot="1">
+    <row r="98" spans="1:10" ht="18.75" thickBot="1">
       <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="J110" s="68"/>
     </row>
-    <row r="111" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="111" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A111" s="58" t="s">
         <v>97</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="J111" s="68"/>
     </row>
-    <row r="112" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="112" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A112" s="60" t="s">
         <v>98</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J112" s="68"/>
     </row>
-    <row r="113" spans="1:10" s="73" customFormat="1" thickBot="1">
+    <row r="113" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1">
       <c r="A113" s="84" t="s">
         <v>81</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J113" s="68"/>
     </row>
-    <row r="114" spans="1:10" s="73" customFormat="1" ht="15" thickBot="1">
+    <row r="114" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="58"/>
       <c r="C114" s="66"/>
@@ -4884,7 +4884,7 @@
       <c r="I114"/>
       <c r="J114" s="68"/>
     </row>
-    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.5" thickBot="1">
+    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.75" thickBot="1">
       <c r="A115" s="15" t="s">
         <v>99</v>
       </c>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="J115" s="68"/>
     </row>
-    <row r="116" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="116" spans="1:10" s="73" customFormat="1">
       <c r="A116" s="20" t="s">
         <v>61</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="J117" s="92"/>
     </row>
-    <row r="118" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="118" spans="1:10" s="73" customFormat="1">
       <c r="A118" s="57" t="s">
         <v>63</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="J118" s="68"/>
     </row>
-    <row r="119" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="119" spans="1:10" s="73" customFormat="1">
       <c r="A119" s="59" t="s">
         <v>100</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="J119" s="68"/>
     </row>
-    <row r="120" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="120" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A120" s="57" t="s">
         <v>64</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="J124" s="68"/>
     </row>
-    <row r="125" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="125" spans="1:10" s="73" customFormat="1">
       <c r="A125" s="27" t="s">
         <v>69</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="J125" s="68"/>
     </row>
-    <row r="126" spans="1:10" s="73" customFormat="1" ht="14">
+    <row r="126" spans="1:10" s="73" customFormat="1" ht="14.25">
       <c r="A126" s="57" t="s">
         <v>101</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J136" s="68"/>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1">
+    <row r="137" spans="1:10" ht="15.75" thickBot="1">
       <c r="A137" s="93" t="s">
         <v>81</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="J137" s="68"/>
     </row>
-    <row r="138" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="66"/>
@@ -5531,7 +5531,7 @@
       <c r="H138" s="66"/>
       <c r="J138" s="68"/>
     </row>
-    <row r="139" spans="1:10" ht="18.5" thickBot="1">
+    <row r="139" spans="1:10" ht="18.75" thickBot="1">
       <c r="A139" s="15" t="s">
         <v>102</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="H155" s="69"/>
       <c r="I155" s="70"/>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1">
+    <row r="156" spans="1:10" ht="15.75" thickBot="1">
       <c r="A156" s="38" t="s">
         <v>115</v>
       </c>
@@ -6002,12 +6002,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.5" thickBot="1">
+    <row r="1" spans="1:31" ht="18.75" thickBot="1">
       <c r="B1" s="17">
         <v>2028</v>
       </c>
@@ -6367,7 +6367,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -8761,17 +8761,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29">
+    <row r="1" spans="1:31" ht="30">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -8871,124 +8871,94 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <f>'Coal Calculations'!B9</f>
         <v>0.85</v>
       </c>
       <c r="C2" s="3">
-        <f>'Coal Calculations'!C9</f>
         <v>0.85</v>
       </c>
       <c r="D2" s="3">
-        <f>'Coal Calculations'!D9</f>
         <v>0.85</v>
       </c>
       <c r="E2" s="3">
-        <f>'Coal Calculations'!E9</f>
         <v>0.85</v>
       </c>
       <c r="F2" s="3">
-        <f>'Coal Calculations'!F9</f>
         <v>0.85</v>
       </c>
       <c r="G2" s="3">
-        <f>'Coal Calculations'!G9</f>
         <v>0.85</v>
       </c>
       <c r="H2" s="3">
-        <f>'Coal Calculations'!H9</f>
         <v>0.85</v>
       </c>
       <c r="I2" s="3">
-        <f>'Coal Calculations'!I9</f>
         <v>0.85</v>
       </c>
       <c r="J2" s="3">
-        <f>'Coal Calculations'!J9</f>
         <v>0.85</v>
       </c>
       <c r="K2" s="3">
-        <f>'Coal Calculations'!K9</f>
         <v>0.85</v>
       </c>
       <c r="L2" s="3">
-        <f>'Coal Calculations'!L9</f>
         <v>0.85</v>
       </c>
       <c r="M2" s="3">
-        <f>'Coal Calculations'!M9</f>
         <v>0.85</v>
       </c>
       <c r="N2" s="3">
-        <f>'Coal Calculations'!N9</f>
         <v>0.85</v>
       </c>
       <c r="O2" s="3">
-        <f>'Coal Calculations'!O9</f>
         <v>0.85</v>
       </c>
       <c r="P2" s="3">
-        <f>'Coal Calculations'!P9</f>
         <v>0.85</v>
       </c>
       <c r="Q2" s="3">
-        <f>'Coal Calculations'!Q9</f>
-        <v>0.72031265723109072</v>
+        <v>0.85</v>
       </c>
       <c r="R2" s="3">
-        <f>'Coal Calculations'!R9</f>
-        <v>0.59062531446215871</v>
+        <v>0.85</v>
       </c>
       <c r="S2" s="3">
-        <f>'Coal Calculations'!S9</f>
-        <v>0.4609379716932267</v>
+        <v>0.85</v>
       </c>
       <c r="T2" s="3">
-        <f>'Coal Calculations'!T9</f>
-        <v>0.33125062892429469</v>
+        <v>0.85</v>
       </c>
       <c r="U2" s="3">
-        <f>'Coal Calculations'!U9</f>
-        <v>0.20156328615530583</v>
+        <v>0.85</v>
       </c>
       <c r="V2" s="3">
-        <f>'Coal Calculations'!V9</f>
-        <v>0.19321882697840209</v>
+        <v>0.85</v>
       </c>
       <c r="W2" s="3">
-        <f>'Coal Calculations'!W9</f>
-        <v>0.18487436780148059</v>
+        <v>0.85</v>
       </c>
       <c r="X2" s="3">
-        <f>'Coal Calculations'!X9</f>
-        <v>0.17652990862455908</v>
+        <v>0.85</v>
       </c>
       <c r="Y2" s="3">
-        <f>'Coal Calculations'!Y9</f>
-        <v>0.16818544944764113</v>
+        <v>0.85</v>
       </c>
       <c r="Z2" s="3">
-        <f>'Coal Calculations'!Z9</f>
-        <v>0.15984099027071963</v>
+        <v>0.85</v>
       </c>
       <c r="AA2" s="3">
-        <f>'Coal Calculations'!AA9</f>
-        <v>0.23406504492902513</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="3">
-        <f>'Coal Calculations'!AB9</f>
-        <v>0.3082890995873413</v>
+        <v>0.85</v>
       </c>
       <c r="AC2" s="3">
-        <f>'Coal Calculations'!AC9</f>
-        <v>0.38251315424565746</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="3">
-        <f>'Coal Calculations'!AD9</f>
-        <v>0.45673720890397362</v>
+        <v>0.85</v>
       </c>
       <c r="AE2" s="3">
-        <f>'Coal Calculations'!AE9</f>
-        <v>0.53096126356228979</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -10577,63 +10547,63 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>0.72031265723109072</v>
+        <v>0.85</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="0"/>
-        <v>0.59062531446215871</v>
+        <v>0.85</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="0"/>
-        <v>0.4609379716932267</v>
+        <v>0.85</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="0"/>
-        <v>0.33125062892429469</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="0"/>
-        <v>0.20156328615530583</v>
+        <v>0.85</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="0"/>
-        <v>0.19321882697840209</v>
+        <v>0.85</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="0"/>
-        <v>0.18487436780148059</v>
+        <v>0.85</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="0"/>
-        <v>0.17652990862455908</v>
+        <v>0.85</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="0"/>
-        <v>0.16818544944764113</v>
+        <v>0.85</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="0"/>
-        <v>0.15984099027071963</v>
+        <v>0.85</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>0.23406504492902513</v>
+        <v>0.85</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="0"/>
-        <v>0.3082890995873413</v>
+        <v>0.85</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>0.38251315424565746</v>
+        <v>0.85</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="0"/>
-        <v>0.45673720890397362</v>
+        <v>0.85</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="0"/>
-        <v>0.53096126356228979</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:31">

--- a/InputData/elec/MCF/Maximum Capacity Factor.xlsx
+++ b/InputData/elec/MCF/Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\MCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692CDF7C-DDC3-4828-8489-9260C0722EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8901C8-0A08-45FE-BA2D-BF915959C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -1851,16 +1851,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.54296875" customWidth="1"/>
+    <col min="8" max="8" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2024,11 +2024,11 @@
       <selection activeCell="C33" sqref="C33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="65.26953125" style="58" customWidth="1"/>
     <col min="2" max="2" width="2" style="58" customWidth="1"/>
-    <col min="3" max="8" width="8.42578125" style="9" customWidth="1"/>
+    <col min="3" max="8" width="8.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2040,7 +2040,7 @@
       <c r="F1" s="8"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:14" ht="26.25">
+    <row r="2" spans="1:14" ht="25">
       <c r="A2" s="102" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="F5" s="8"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.5">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -2113,7 +2113,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" thickBot="1">
+    <row r="10" spans="1:14" ht="18.5" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="38" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="43"/>
@@ -2300,7 +2300,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" thickBot="1">
+    <row r="17" spans="1:10" ht="18.5" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="45" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="50"/>
@@ -2366,7 +2366,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" thickBot="1">
+    <row r="20" spans="1:10" ht="18.5" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="61" t="s">
         <v>59</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="65"/>
@@ -2667,7 +2667,7 @@
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" thickBot="1">
+    <row r="33" spans="1:10" ht="18.5" thickBot="1">
       <c r="A33" s="15" t="s">
         <v>60</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="38" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A38" s="57" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="39" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A39" s="59" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="40" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A40" s="57" t="s">
         <v>67</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="41" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A41" s="59" t="s">
         <v>68</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="43" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A43" s="59" t="s">
         <v>70</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="44" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A44" s="57" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="45" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A45" s="59" t="s">
         <v>72</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="49" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A49" s="59" t="s">
         <v>76</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="50" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A50" s="57" t="s">
         <v>77</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="76" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="66"/>
@@ -3289,7 +3289,7 @@
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" thickBot="1">
+    <row r="56" spans="1:10" ht="18.5" thickBot="1">
       <c r="A56" s="15" t="s">
         <v>82</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J60" s="81"/>
     </row>
-    <row r="61" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="61" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A61" s="57" t="s">
         <v>65</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="J61" s="81"/>
     </row>
-    <row r="62" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="62" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A62" s="59" t="s">
         <v>66</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J62" s="81"/>
     </row>
-    <row r="63" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="63" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A63" s="57" t="s">
         <v>67</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="J64" s="81"/>
     </row>
-    <row r="65" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="65" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A65" s="57" t="s">
         <v>70</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="J65" s="81"/>
     </row>
-    <row r="66" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="66" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A66" s="82" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="J66" s="81"/>
     </row>
-    <row r="67" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="67" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A67" s="57" t="s">
         <v>72</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J70" s="81"/>
     </row>
-    <row r="71" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="71" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A71" s="57" t="s">
         <v>76</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J71" s="81"/>
     </row>
-    <row r="72" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="72" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A72" s="83" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J74" s="81"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1">
+    <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" s="84" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="J75" s="81"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="38"/>
       <c r="B76" s="39"/>
       <c r="C76" s="88"/>
@@ -3861,7 +3861,7 @@
       <c r="I76" s="88"/>
       <c r="J76" s="81"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" thickBot="1">
+    <row r="77" spans="1:10" ht="18.5" thickBot="1">
       <c r="A77" s="15" t="s">
         <v>83</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J81" s="81"/>
     </row>
-    <row r="82" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="82" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A82" s="57" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="J82" s="81"/>
     </row>
-    <row r="83" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="83" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A83" s="59" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="J83" s="81"/>
     </row>
-    <row r="84" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="84" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A84" s="57" t="s">
         <v>67</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="J85" s="81"/>
     </row>
-    <row r="86" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="86" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A86" s="57" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J86" s="81"/>
     </row>
-    <row r="87" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="87" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A87" s="82" t="s">
         <v>71</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J87" s="81"/>
     </row>
-    <row r="88" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="88" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A88" s="57" t="s">
         <v>72</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J91" s="81"/>
     </row>
-    <row r="92" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="92" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A92" s="57" t="s">
         <v>76</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="J92" s="81"/>
     </row>
-    <row r="93" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="93" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A93" s="83" t="s">
         <v>77</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="J95" s="81"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="84" t="s">
         <v>81</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J96" s="81"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1">
+    <row r="97" spans="1:10" ht="15" thickBot="1">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="66"/>
@@ -4431,7 +4431,7 @@
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75" thickBot="1">
+    <row r="98" spans="1:10" ht="18.5" thickBot="1">
       <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="J110" s="68"/>
     </row>
-    <row r="111" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="111" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A111" s="58" t="s">
         <v>97</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="J111" s="68"/>
     </row>
-    <row r="112" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="112" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A112" s="60" t="s">
         <v>98</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J112" s="68"/>
     </row>
-    <row r="113" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1">
+    <row r="113" spans="1:10" s="73" customFormat="1" thickBot="1">
       <c r="A113" s="84" t="s">
         <v>81</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J113" s="68"/>
     </row>
-    <row r="114" spans="1:10" s="73" customFormat="1" ht="15.75" thickBot="1">
+    <row r="114" spans="1:10" s="73" customFormat="1" ht="15" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="58"/>
       <c r="C114" s="66"/>
@@ -4884,7 +4884,7 @@
       <c r="I114"/>
       <c r="J114" s="68"/>
     </row>
-    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.75" thickBot="1">
+    <row r="115" spans="1:10" s="73" customFormat="1" ht="18.5" thickBot="1">
       <c r="A115" s="15" t="s">
         <v>99</v>
       </c>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="J115" s="68"/>
     </row>
-    <row r="116" spans="1:10" s="73" customFormat="1">
+    <row r="116" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A116" s="20" t="s">
         <v>61</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="J117" s="92"/>
     </row>
-    <row r="118" spans="1:10" s="73" customFormat="1">
+    <row r="118" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A118" s="57" t="s">
         <v>63</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="J118" s="68"/>
     </row>
-    <row r="119" spans="1:10" s="73" customFormat="1">
+    <row r="119" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A119" s="59" t="s">
         <v>100</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="J119" s="68"/>
     </row>
-    <row r="120" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="120" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A120" s="57" t="s">
         <v>64</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="J124" s="68"/>
     </row>
-    <row r="125" spans="1:10" s="73" customFormat="1">
+    <row r="125" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A125" s="27" t="s">
         <v>69</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="J125" s="68"/>
     </row>
-    <row r="126" spans="1:10" s="73" customFormat="1" ht="14.25">
+    <row r="126" spans="1:10" s="73" customFormat="1" ht="14">
       <c r="A126" s="57" t="s">
         <v>101</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J136" s="68"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1">
+    <row r="137" spans="1:10" ht="15" thickBot="1">
       <c r="A137" s="93" t="s">
         <v>81</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="J137" s="68"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="66"/>
@@ -5531,7 +5531,7 @@
       <c r="H138" s="66"/>
       <c r="J138" s="68"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" thickBot="1">
+    <row r="139" spans="1:10" ht="18.5" thickBot="1">
       <c r="A139" s="15" t="s">
         <v>102</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="H155" s="69"/>
       <c r="I155" s="70"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1">
+    <row r="156" spans="1:10" ht="15" thickBot="1">
       <c r="A156" s="38" t="s">
         <v>115</v>
       </c>
@@ -6002,12 +6002,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" thickBot="1">
+    <row r="1" spans="1:31" ht="18.5" thickBot="1">
       <c r="B1" s="17">
         <v>2028</v>
       </c>
@@ -6367,7 +6367,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -8761,17 +8761,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31" ht="29">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -8871,94 +8871,124 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
+        <f>'Coal Calculations'!B9</f>
         <v>0.85</v>
       </c>
       <c r="C2" s="3">
+        <f>'Coal Calculations'!C9</f>
         <v>0.85</v>
       </c>
       <c r="D2" s="3">
+        <f>'Coal Calculations'!D9</f>
         <v>0.85</v>
       </c>
       <c r="E2" s="3">
+        <f>'Coal Calculations'!E9</f>
         <v>0.85</v>
       </c>
       <c r="F2" s="3">
+        <f>'Coal Calculations'!F9</f>
         <v>0.85</v>
       </c>
       <c r="G2" s="3">
+        <f>'Coal Calculations'!G9</f>
         <v>0.85</v>
       </c>
       <c r="H2" s="3">
+        <f>'Coal Calculations'!H9</f>
         <v>0.85</v>
       </c>
       <c r="I2" s="3">
+        <f>'Coal Calculations'!I9</f>
         <v>0.85</v>
       </c>
       <c r="J2" s="3">
+        <f>'Coal Calculations'!J9</f>
         <v>0.85</v>
       </c>
       <c r="K2" s="3">
+        <f>'Coal Calculations'!K9</f>
         <v>0.85</v>
       </c>
       <c r="L2" s="3">
+        <f>'Coal Calculations'!L9</f>
         <v>0.85</v>
       </c>
       <c r="M2" s="3">
+        <f>'Coal Calculations'!M9</f>
         <v>0.85</v>
       </c>
       <c r="N2" s="3">
+        <f>'Coal Calculations'!N9</f>
         <v>0.85</v>
       </c>
       <c r="O2" s="3">
+        <f>'Coal Calculations'!O9</f>
         <v>0.85</v>
       </c>
       <c r="P2" s="3">
+        <f>'Coal Calculations'!P9</f>
         <v>0.85</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!Q9</f>
+        <v>0.72031265723109072</v>
       </c>
       <c r="R2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!R9</f>
+        <v>0.59062531446215871</v>
       </c>
       <c r="S2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!S9</f>
+        <v>0.4609379716932267</v>
       </c>
       <c r="T2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!T9</f>
+        <v>0.33125062892429469</v>
       </c>
       <c r="U2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!U9</f>
+        <v>0.20156328615530583</v>
       </c>
       <c r="V2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!V9</f>
+        <v>0.19321882697840209</v>
       </c>
       <c r="W2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!W9</f>
+        <v>0.18487436780148059</v>
       </c>
       <c r="X2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!X9</f>
+        <v>0.17652990862455908</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!Y9</f>
+        <v>0.16818544944764113</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!Z9</f>
+        <v>0.15984099027071963</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!AA9</f>
+        <v>0.23406504492902513</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!AB9</f>
+        <v>0.3082890995873413</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!AC9</f>
+        <v>0.38251315424565746</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!AD9</f>
+        <v>0.45673720890397362</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.85</v>
+        <f>'Coal Calculations'!AE9</f>
+        <v>0.53096126356228979</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -10547,63 +10577,63 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.72031265723109072</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.59062531446215871</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.4609379716932267</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.33125062892429469</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.20156328615530583</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.19321882697840209</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.18487436780148059</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.17652990862455908</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.16818544944764113</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.15984099027071963</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.23406504492902513</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.3082890995873413</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.38251315424565746</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.45673720890397362</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.53096126356228979</v>
       </c>
     </row>
     <row r="20" spans="1:31">
